--- a/Nodes test (27jan25).xlsx
+++ b/Nodes test (27jan25).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huibvanderveen/Desktop/Pycharm Projects/TU/Fiverrr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huibvanderveen/Desktop/Pycharm Projects/M_B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985742C-6709-884B-9E87-71CD6A6EF48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A90C2B-054A-0841-A71E-FE1510279C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{E296E76D-BF32-744E-934A-6E086816CA7F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{E296E76D-BF32-744E-934A-6E086816CA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes (master)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="740">
   <si>
     <t>Versie</t>
   </si>
@@ -2256,6 +2256,9 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Martin Blokker</t>
   </si>
 </sst>
 </file>
@@ -2711,11 +2714,11 @@
   <dimension ref="A1:O249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G224" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C38" sqref="C38"/>
       <selection pane="topRight" activeCell="C38" sqref="C38"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2793,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -2820,12 +2823,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2849,9 +2852,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2901,9 +2904,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -2976,9 +2979,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -2999,9 +3002,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -3025,9 +3028,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -3048,9 +3051,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -3068,9 +3071,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -3094,9 +3097,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -3114,9 +3117,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -3139,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -3163,12 +3166,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -3192,10 +3195,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3213,12 +3216,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -3242,12 +3245,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -3276,7 +3279,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -3300,12 +3303,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -3332,10 +3335,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -3356,12 +3359,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -3385,12 +3388,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -3414,12 +3417,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
@@ -3443,12 +3446,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -3472,12 +3475,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -3504,12 +3507,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -3533,12 +3536,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -3562,9 +3565,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -3588,9 +3591,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>15</v>
@@ -3608,9 +3611,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
@@ -3628,9 +3631,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -3648,9 +3651,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -3668,9 +3671,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -3688,9 +3691,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -3708,9 +3711,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -3728,9 +3731,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -3748,9 +3751,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -3768,9 +3771,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -3788,9 +3791,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
@@ -3808,12 +3811,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -3842,7 +3845,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
@@ -3866,12 +3869,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -3898,9 +3901,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -3924,9 +3927,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -3949,7 +3952,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -3973,10 +3976,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -3997,10 +4000,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -4018,9 +4021,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
@@ -4044,9 +4047,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
@@ -4075,7 +4078,7 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
@@ -4101,9 +4104,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -4127,9 +4130,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>15</v>
@@ -4153,9 +4156,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -4173,9 +4176,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
@@ -4199,9 +4202,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -4225,9 +4228,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
@@ -4251,9 +4254,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -4279,7 +4282,7 @@
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -4305,7 +4308,7 @@
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>15</v>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -4369,9 +4372,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -4392,12 +4395,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -4426,7 +4429,7 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
@@ -4453,9 +4456,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
@@ -4476,9 +4479,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
@@ -4502,9 +4505,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>15</v>
@@ -4528,12 +4531,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
@@ -4557,12 +4560,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>15</v>
@@ -4586,9 +4589,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>15</v>
@@ -4609,9 +4612,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>15</v>
@@ -4635,9 +4638,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
@@ -4661,9 +4664,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>15</v>
@@ -4687,9 +4690,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>15</v>
@@ -4713,9 +4716,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>15</v>
@@ -4736,9 +4739,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>15</v>
@@ -4759,9 +4762,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>15</v>
@@ -4782,9 +4785,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>15</v>
@@ -4805,9 +4808,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
@@ -4828,9 +4831,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>15</v>
@@ -4851,9 +4854,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>15</v>
@@ -4871,9 +4874,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>15</v>
@@ -4891,9 +4894,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
@@ -4914,9 +4917,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
@@ -4937,9 +4940,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
@@ -4960,9 +4963,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
@@ -4983,9 +4986,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
@@ -5006,9 +5009,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
@@ -5029,9 +5032,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>15</v>
@@ -5052,9 +5055,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>15</v>
@@ -5075,9 +5078,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>15</v>
@@ -5101,9 +5104,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
@@ -5127,9 +5130,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" ht="26" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>15</v>
@@ -5153,9 +5156,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>15</v>
@@ -5179,9 +5182,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>15</v>
@@ -5202,9 +5205,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>15</v>
@@ -5225,9 +5228,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>15</v>
@@ -5248,9 +5251,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
@@ -5268,12 +5271,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>15</v>
@@ -5297,9 +5300,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>15</v>
@@ -5348,9 +5351,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>15</v>
@@ -5371,9 +5374,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>15</v>
@@ -5397,9 +5400,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>15</v>
@@ -5420,9 +5423,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>15</v>
@@ -5443,9 +5446,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>15</v>
@@ -5466,9 +5469,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>15</v>
@@ -5494,7 +5497,7 @@
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
@@ -5538,9 +5541,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>15</v>
@@ -5561,9 +5564,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>15</v>
@@ -5587,12 +5590,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>15</v>
@@ -5618,9 +5621,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>15</v>
@@ -5644,9 +5647,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>15</v>
@@ -5669,7 +5672,7 @@
     </row>
     <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>15</v>
@@ -5693,9 +5696,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>15</v>
@@ -5713,9 +5716,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>15</v>
@@ -5739,9 +5742,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>15</v>
@@ -5765,9 +5768,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>15</v>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>15</v>
@@ -5805,9 +5808,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>15</v>
@@ -5828,9 +5831,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>15</v>
@@ -5851,9 +5854,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>15</v>
@@ -5877,9 +5880,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>15</v>
@@ -5903,9 +5906,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>15</v>
@@ -5929,12 +5932,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>15</v>
@@ -5958,9 +5961,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>15</v>
@@ -5981,9 +5984,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>15</v>
@@ -6004,9 +6007,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>15</v>
@@ -6027,9 +6030,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>15</v>
@@ -6050,9 +6053,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>15</v>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>15</v>
@@ -6096,9 +6099,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>15</v>
@@ -6119,9 +6122,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>15</v>
@@ -6145,9 +6148,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>15</v>
@@ -6171,9 +6174,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>15</v>
@@ -6194,9 +6197,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>15</v>
@@ -6217,9 +6220,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>15</v>
@@ -6242,7 +6245,7 @@
     </row>
     <row r="142" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>15</v>
@@ -6266,9 +6269,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>15</v>
@@ -6289,12 +6292,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>15</v>
@@ -6318,12 +6321,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>15</v>
@@ -6347,12 +6350,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>15</v>
@@ -6376,9 +6379,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>15</v>
@@ -6402,9 +6405,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>15</v>
@@ -6433,7 +6436,7 @@
         <v>14</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>15</v>
@@ -6457,9 +6460,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>15</v>
@@ -6483,9 +6486,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>15</v>
@@ -6509,9 +6512,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>15</v>
@@ -6537,7 +6540,7 @@
     </row>
     <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>15</v>
@@ -6561,9 +6564,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>15</v>
@@ -6584,9 +6587,9 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>15</v>
@@ -6610,9 +6613,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>15</v>
@@ -6639,9 +6642,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>15</v>
@@ -6667,7 +6670,7 @@
     </row>
     <row r="158" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>15</v>
@@ -6691,9 +6694,9 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>15</v>
@@ -6719,7 +6722,7 @@
         <v>14</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>15</v>
@@ -6743,9 +6746,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>15</v>
@@ -6769,9 +6772,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>15</v>
@@ -6792,9 +6795,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>15</v>
@@ -6815,9 +6818,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>15</v>
@@ -6838,9 +6841,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>15</v>
@@ -6858,9 +6861,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>15</v>
@@ -6878,9 +6881,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>15</v>
@@ -6898,9 +6901,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>15</v>
@@ -6918,9 +6921,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>15</v>
@@ -6938,9 +6941,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>15</v>
@@ -6958,12 +6961,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>482</v>
@@ -6984,12 +6987,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>482</v>
@@ -7013,12 +7016,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>482</v>
@@ -7045,12 +7048,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>482</v>
@@ -7085,7 +7088,7 @@
         <v>14</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>482</v>
@@ -7109,12 +7112,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>482</v>
@@ -7141,12 +7144,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>482</v>
@@ -7172,7 +7175,7 @@
         <v>14</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>482</v>
@@ -7196,9 +7199,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>482</v>
@@ -7219,12 +7222,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>482</v>
@@ -7251,7 +7254,7 @@
     <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>482</v>
@@ -7277,7 +7280,7 @@
         <v>14</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>482</v>
@@ -7306,7 +7309,7 @@
         <v>14</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>482</v>
@@ -7330,9 +7333,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>482</v>
@@ -7353,12 +7356,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>482</v>
@@ -7382,12 +7385,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>482</v>
@@ -7408,9 +7411,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>482</v>
@@ -7431,9 +7434,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>482</v>
@@ -7454,9 +7457,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>482</v>
@@ -7486,9 +7489,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>482</v>
@@ -7512,9 +7515,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>482</v>
@@ -7538,9 +7541,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>482</v>
@@ -7564,12 +7567,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>482</v>
@@ -7593,12 +7596,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>482</v>
@@ -7627,7 +7630,7 @@
         <v>14</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>555</v>
@@ -7656,7 +7659,7 @@
         <v>14</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>555</v>
@@ -7720,12 +7723,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>564</v>
@@ -7754,7 +7757,7 @@
         <v>14</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>564</v>
@@ -7780,7 +7783,7 @@
     </row>
     <row r="201" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>564</v>
@@ -7806,9 +7809,9 @@
         <v>576</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>564</v>
@@ -8366,12 +8369,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>582</v>
@@ -8397,7 +8400,7 @@
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>582</v>
@@ -8424,7 +8427,7 @@
     </row>
     <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>582</v>
@@ -8446,9 +8449,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>582</v>
@@ -8479,9 +8482,9 @@
         <v>660</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>582</v>
@@ -8509,9 +8512,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>582</v>
@@ -8538,12 +8541,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>668</v>
@@ -8567,9 +8570,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>668</v>
@@ -8595,7 +8598,7 @@
         <v>674</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>668</v>
@@ -8618,7 +8621,7 @@
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>678</v>
@@ -8791,9 +8794,9 @@
         <v>703</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="B238" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>704</v>
@@ -8817,12 +8820,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>708</v>
@@ -8846,12 +8849,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>708</v>
@@ -8875,12 +8878,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>708</v>
@@ -8904,12 +8907,12 @@
         <v>717</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>708</v>
@@ -8933,12 +8936,12 @@
         <v>720</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>708</v>
@@ -8962,12 +8965,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>708</v>
@@ -8991,12 +8994,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>708</v>
@@ -9020,12 +9023,12 @@
         <v>729</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>730</v>
@@ -9049,9 +9052,9 @@
         <v>734</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>730</v>
@@ -9069,9 +9072,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>15</v>
@@ -9089,9 +9092,9 @@
         <v>737</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
-        <v>15</v>
+        <v>739</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>482</v>
